--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T04:15:54+00:00</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -268,10 +271,6 @@
     <t>生活背景に関するObservation（収集したり観察した事実など）の制約プロフィール</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -293,7 +292,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -507,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -537,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -545,7 +544,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -608,7 +607,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Obserbationの種類（タイプ）の分類</t>
+    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
@@ -616,11 +615,36 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-基底仕様のカテゴリ「social-history」固定とする</t>
+【JP Core仕様】基底仕様のカテゴリ「social-history」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>socialHistory</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -631,18 +655,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -657,16 +669,13 @@
 observationの対象物を記述する。 observation の名前で呼ばれることもある。</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-項目についてはMEDISのJ-MIXの「生活背景情報」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>MEDISのJ-MIXの「生活背景情報」（※宗教を除く）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/socialHistory-code</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -703,8 +712,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -729,15 +737,15 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物。</t>
+    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-配偶者、親、胎児、ドナーなど、患者に関連する何かまたは誰かを表す記録の患者ではない場合の、観察の実際の焦点。たとえば、母親の記録にある胎児の観察。観察の焦点はまた、既存の状態、介入、対象の食事、対象の別の観察、または腫瘍または埋め込まれた装置などの体の構造であり得る。使用例はobservationリソースを使用して、母親が子供の気管切開チューブを交換するように訓練されているかどうかをキャプチャすることです。この例では、子供が記録の患者であり、母親が焦点（focus）となる。</t>
+配偶者、親、胎児、ドナーなど、患者に関連する何かまたは誰かを表す記録の患者ではない場合の、観察の実際の焦点。たとえば、母親の記録にある胎児の観察。観察の焦点はまた、既存の状態、介入、対象の食事、対象の別の観察、または腫瘍または埋め込まれた装置などの体の構造であり得る。使用例はobservationリソースを使用して、母親が子供の気管切開チューブを交換するように訓練されているかどうかをキャプチャすることである。この例では、子供が記録の患者であり、母親が焦点（focus）となる。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -750,7 +758,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -758,11 +766,11 @@
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）（受診、入院など）。</t>
+このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-通常、イベントが発生したEncounterですが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
+通常、イベントが発生したEncounterであるが、一部のイベントは、エンEncounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -795,12 +803,11 @@
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかですが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -834,7 +841,7 @@
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合があります。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
+レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合がある。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -849,7 +856,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -860,7 +867,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -894,8 +901,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-文字列、コード、数値に限定する</t>
+【JP Core仕様】文字列、コード、数値に限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -966,7 +972,7 @@
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-「異常フラグ」として呼ばれる検査結果解釈コードが従来から使用されており、その使用はコード化された解釈が関連するような他の場合でも拡大して使われている。多くの場合、1つ以上の単純でコンパクトなコードとして報告され、この要素は、結果の意味や正常かどうかを示すために、レポートや時系列表で結果値の隣に配置されることがよくあります。</t>
+「異常フラグ」として呼ばれる検査結果解釈コードが従来から使用されており、その使用はコード化された解釈が関連するような他の場合でも拡大して使われている。多くの場合、1つ以上の単純でコンパクトなコードとして報告され、この要素は、結果の意味や正常かどうかを示すために、レポートや時系列表で結果値の隣に配置されることがよくある。</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1022,17 +1028,14 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示します。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-Observation.codeにあるコードだけでは暗黙的に部位はわからない場合にだけ使用される。多くのシステムでは、これはデータ中の部分情報ではなく関連する観察（観測）として記述さえる場合がある。
-もしBodySiteを個別のリソースとして処理する必要があるような使用例（たとえば、個別に識別して追跡するなど）においては、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1059,19 +1062,13 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.
-Observation.codeのコードでは暗黙的に示されない場合にだけ使用する。</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
     <t>Methods for simple observations.</t>
@@ -1160,7 +1157,7 @@
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈されます。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
+通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈される。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
@@ -1178,6 +1175,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1341,7 +1342,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1349,7 +1350,7 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）です。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1365,11 +1366,11 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_SocialHistory)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_SocialHistory)
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
@@ -1377,8 +1378,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_SocialHistoryを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1395,7 +1395,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照してください。</t>
+複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照すること。</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1744,55 +1744,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1812,39 +1812,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.79296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.4765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.11328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -1856,226 +1856,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>85</v>
@@ -2090,10 +2090,10 @@
         <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -2102,20 +2102,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>91</v>
@@ -2134,83 +2134,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -2219,20 +2219,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>91</v>
@@ -2249,83 +2249,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -2334,17 +2334,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>91</v>
@@ -2366,83 +2366,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2451,23 +2451,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>110</v>
@@ -2483,26 +2483,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>114</v>
@@ -2514,52 +2514,52 @@
         <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2572,19 +2572,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>120</v>
@@ -2600,83 +2600,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2689,19 +2689,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>128</v>
@@ -2717,83 +2717,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2806,19 +2806,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>136</v>
@@ -2834,83 +2834,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2923,19 +2923,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>136</v>
@@ -2953,83 +2953,83 @@
         <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3038,20 +3038,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>91</v>
@@ -3070,62 +3070,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>102</v>
@@ -3134,7 +3134,7 @@
         <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>153</v>
@@ -3146,7 +3146,7 @@
         <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3159,16 +3159,16 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>91</v>
@@ -3187,62 +3187,62 @@
         <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>102</v>
@@ -3251,7 +3251,7 @@
         <v>162</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>163</v>
@@ -3260,10 +3260,10 @@
         <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3276,16 +3276,16 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>91</v>
@@ -3304,62 +3304,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>102</v>
@@ -3368,7 +3368,7 @@
         <v>171</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>172</v>
@@ -3377,10 +3377,10 @@
         <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3399,7 +3399,7 @@
         <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
@@ -3423,26 +3423,26 @@
         <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>179</v>
@@ -3454,19 +3454,19 @@
         <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>174</v>
@@ -3478,7 +3478,7 @@
         <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>102</v>
@@ -3499,7 +3499,7 @@
         <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3508,23 +3508,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>188</v>
@@ -3542,92 +3542,92 @@
         <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>114</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3637,114 +3637,116 @@
         <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3754,2344 +3756,2346 @@
         <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>301</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="X28" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>136</v>
+        <v>359</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -6100,26 +6104,26 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>188</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>380</v>
@@ -6127,441 +6131,441 @@
       <c r="L37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="O39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -6570,1059 +6574,1055 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>136</v>
+        <v>359</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>436</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>188</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50">
@@ -7631,117 +7631,117 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -7750,117 +7750,236 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>81</v>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -418,9 +418,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
   </si>
   <si>
     <t>Observation.status</t>
-  </si>
-  <si>
-    <t>結果の状態【詳細参照】</t>
   </si>
   <si>
     <t>結果の状態</t>
@@ -482,9 +476,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -773,9 +764,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
@@ -813,9 +801,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
@@ -844,9 +829,6 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
@@ -867,9 +849,6 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
@@ -902,9 +881,6 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
-  </si>
-  <si>
     <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
@@ -934,9 +910,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
@@ -959,9 +932,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
@@ -1018,9 +988,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
@@ -1053,9 +1020,6 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
-  </si>
-  <si>
     <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
@@ -1088,9 +1052,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関するコメント</t>
@@ -1172,9 +1133,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
@@ -1200,9 +1158,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
@@ -1226,9 +1181,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
@@ -1401,9 +1353,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
@@ -1423,9 +1372,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
@@ -1436,9 +1382,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
@@ -3259,10 +3202,10 @@
         <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3327,16 +3270,16 @@
         <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3347,10 +3290,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3376,16 +3319,16 @@
         <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3410,14 +3353,14 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
@@ -3434,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>51</v>
@@ -3449,19 +3392,19 @@
         <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3469,10 +3412,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3495,19 +3438,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3536,23 +3479,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3576,10 +3519,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3587,13 +3530,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
@@ -3615,19 +3558,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3652,11 +3595,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3674,7 +3617,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3698,10 +3641,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3709,10 +3652,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3735,13 +3678,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3792,7 +3735,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3816,7 +3759,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -3827,10 +3770,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3859,7 +3802,7 @@
         <v>98</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>100</v>
@@ -3900,19 +3843,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3936,7 +3879,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -3947,10 +3890,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3973,19 +3916,19 @@
         <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4034,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4055,10 +3998,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4069,10 +4012,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4095,13 +4038,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4152,7 +4095,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4176,7 +4119,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4187,10 +4130,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4219,7 +4162,7 @@
         <v>98</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>100</v>
@@ -4260,19 +4203,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4296,7 +4239,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4307,10 +4250,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4336,23 +4279,23 @@
         <v>65</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4394,7 +4337,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4415,10 +4358,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4429,10 +4372,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4455,16 +4398,16 @@
         <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4514,7 +4457,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4535,10 +4478,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4549,10 +4492,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4578,21 +4521,21 @@
         <v>71</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4634,7 +4577,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4655,10 +4598,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4669,10 +4612,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4695,17 +4638,17 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4754,7 +4697,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4775,10 +4718,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4789,10 +4732,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4815,19 +4758,19 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4876,7 +4819,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4897,10 +4840,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -4911,10 +4854,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4937,19 +4880,19 @@
         <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4998,7 +4941,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5019,10 +4962,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5033,14 +4976,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5059,19 +5002,19 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5100,7 +5043,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5118,7 +5061,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>51</v>
@@ -5133,30 +5076,30 @@
         <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5179,19 +5122,19 @@
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5240,7 +5183,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5255,19 +5198,19 @@
         <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>41</v>
@@ -5275,10 +5218,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5301,16 +5244,16 @@
         <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5360,7 +5303,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5381,13 +5324,13 @@
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>41</v>
@@ -5395,14 +5338,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5421,19 +5364,19 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5482,7 +5425,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5497,19 +5440,19 @@
         <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>41</v>
@@ -5517,14 +5460,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5543,19 +5486,19 @@
         <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5604,7 +5547,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5619,19 +5562,19 @@
         <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>41</v>
@@ -5639,10 +5582,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5665,16 +5608,16 @@
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5724,7 +5667,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5745,13 +5688,13 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>41</v>
@@ -5759,10 +5702,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5785,19 +5728,19 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5846,7 +5789,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5861,19 +5804,19 @@
         <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>41</v>
@@ -5881,10 +5824,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5907,19 +5850,19 @@
         <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5968,7 +5911,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5977,7 +5920,7 @@
         <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>63</v>
@@ -5986,27 +5929,27 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6029,19 +5972,19 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6066,13 +6009,13 @@
         <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>41</v>
@@ -6090,7 +6033,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6099,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>63</v>
@@ -6114,7 +6057,7 @@
         <v>94</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6125,14 +6068,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6151,19 +6094,19 @@
         <v>41</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6188,14 +6131,14 @@
         <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>41</v>
       </c>
@@ -6212,7 +6155,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6230,27 +6173,27 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6273,19 +6216,19 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6334,7 +6277,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6355,10 +6298,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6369,10 +6312,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6395,16 +6338,16 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6430,13 +6373,13 @@
         <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>41</v>
@@ -6454,7 +6397,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6472,27 +6415,27 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6515,19 +6458,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6552,13 +6495,13 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6576,7 +6519,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6597,10 +6540,10 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6611,10 +6554,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6637,16 +6580,16 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6696,7 +6639,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6714,27 +6657,27 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6757,16 +6700,16 @@
         <v>41</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6816,7 +6759,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6834,27 +6777,27 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6877,19 +6820,19 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6938,7 +6881,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6950,7 +6893,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -6959,10 +6902,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -6973,10 +6916,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6999,13 +6942,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7056,7 +6999,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7080,7 +7023,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7091,10 +7034,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7123,7 +7066,7 @@
         <v>98</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>100</v>
@@ -7176,7 +7119,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7200,7 +7143,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7211,14 +7154,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7240,10 +7183,10 @@
         <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>100</v>
@@ -7298,7 +7241,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7333,10 +7276,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7359,13 +7302,13 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7416,7 +7359,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7425,7 +7368,7 @@
         <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>63</v>
@@ -7437,10 +7380,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7451,10 +7394,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7477,13 +7420,13 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7534,7 +7477,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7543,7 +7486,7 @@
         <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>63</v>
@@ -7555,10 +7498,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7569,10 +7512,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7595,19 +7538,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7635,10 +7578,10 @@
         <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
@@ -7656,7 +7599,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7674,13 +7617,13 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7691,10 +7634,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7717,19 +7660,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7754,13 +7697,13 @@
         <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7778,7 +7721,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7796,13 +7739,13 @@
         <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7813,10 +7756,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7839,17 +7782,17 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7898,7 +7841,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7922,7 +7865,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -7933,10 +7876,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7959,13 +7902,13 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8016,7 +7959,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8037,10 +7980,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8051,10 +7994,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8077,16 +8020,16 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8136,7 +8079,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8157,10 +8100,10 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8171,10 +8114,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8197,16 +8140,16 @@
         <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8256,7 +8199,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8277,10 +8220,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8291,10 +8234,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8317,19 +8260,19 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8378,7 +8321,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8399,10 +8342,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8413,10 +8356,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8439,13 +8382,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8496,7 +8439,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8520,7 +8463,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8531,10 +8474,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8563,7 +8506,7 @@
         <v>98</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>100</v>
@@ -8616,7 +8559,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8640,7 +8583,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8651,14 +8594,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8680,10 +8623,10 @@
         <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>100</v>
@@ -8738,7 +8681,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8773,10 +8716,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8799,19 +8742,19 @@
         <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8836,13 +8779,13 @@
         <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>41</v>
@@ -8860,7 +8803,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>51</v>
@@ -8878,16 +8821,16 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>41</v>
@@ -8895,10 +8838,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8921,19 +8864,19 @@
         <v>52</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>41</v>
@@ -8982,7 +8925,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9000,27 +8943,27 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9043,19 +8986,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9080,13 +9023,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -9104,7 +9047,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9113,7 +9056,7 @@
         <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>63</v>
@@ -9128,7 +9071,7 @@
         <v>94</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9139,14 +9082,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9165,19 +9108,19 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9202,14 +9145,14 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
       </c>
@@ -9226,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9244,27 +9187,27 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9290,16 +9233,16 @@
         <v>42</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9348,7 +9291,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9369,10 +9312,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -614,7 +614,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
